--- a/Original Data/No_Treatment_SPB.xlsx
+++ b/Original Data/No_Treatment_SPB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF3CDB-2F02-074E-A7CE-B55326ECBDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FCEA8-AC83-F341-A9D8-34EEBF745078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="24120" windowHeight="17500" activeTab="6" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="24120" windowHeight="17500" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Veg" sheetId="7" r:id="rId7"/>
     <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="796">
   <si>
     <t>Code</t>
   </si>
@@ -2427,6 +2427,9 @@
   </si>
   <si>
     <t>SP_Total_Cover</t>
+  </si>
+  <si>
+    <t>Plot_No</t>
   </si>
 </sst>
 </file>
@@ -13006,9 +13009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B162"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13025,7 +13028,7 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>779</v>
@@ -16913,7 +16916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AF3B60-0E74-734A-A08B-D35EB7E4C5C1}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>

--- a/Original Data/No_Treatment_SPB.xlsx
+++ b/Original Data/No_Treatment_SPB.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FCEA8-AC83-F341-A9D8-34EEBF745078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7DA83-B742-3041-83DB-DD6F9513362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="24120" windowHeight="17500" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="24120" windowHeight="17500" activeTab="8" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lookups" sheetId="1" r:id="rId1"/>
-    <sheet name="Plot Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Small Seedling" sheetId="3" r:id="rId3"/>
-    <sheet name="Large Seedling" sheetId="4" r:id="rId4"/>
-    <sheet name="Sapling" sheetId="5" r:id="rId5"/>
-    <sheet name="Prism" sheetId="6" r:id="rId6"/>
-    <sheet name="Veg" sheetId="7" r:id="rId7"/>
-    <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Meta" sheetId="9" r:id="rId1"/>
+    <sheet name="Lookups" sheetId="1" r:id="rId2"/>
+    <sheet name="Plot Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Small Seedling" sheetId="3" r:id="rId4"/>
+    <sheet name="Large Seedling" sheetId="4" r:id="rId5"/>
+    <sheet name="Sapling" sheetId="5" r:id="rId6"/>
+    <sheet name="Prism" sheetId="6" r:id="rId7"/>
+    <sheet name="Veg" sheetId="7" r:id="rId8"/>
+    <sheet name="Ground Data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="852">
   <si>
     <t>Code</t>
   </si>
@@ -2378,30 +2379,12 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Plot#</t>
-  </si>
-  <si>
     <t>Species_Code</t>
   </si>
   <si>
     <t>Latin_Name</t>
   </si>
   <si>
-    <t>Total#</t>
-  </si>
-  <si>
-    <t>Browsed#</t>
-  </si>
-  <si>
-    <t>StumpSprout#</t>
-  </si>
-  <si>
-    <t>Germinate#</t>
-  </si>
-  <si>
-    <t>LymantriaDefo%</t>
-  </si>
-  <si>
     <t>DBH(cm)</t>
   </si>
   <si>
@@ -2429,7 +2412,204 @@
     <t>SP_Total_Cover</t>
   </si>
   <si>
+    <t>Notes, LYDI defoliation, and the categories 'trash/junk' &amp; 'water' were removed to import data into R</t>
+  </si>
+  <si>
+    <t>How data has been transformed</t>
+  </si>
+  <si>
+    <t>Each observation of a different species is on a different line (hard return)</t>
+  </si>
+  <si>
+    <t>From data importation, data appears to be separated with a ;</t>
+  </si>
+  <si>
+    <t>Sites were no species were observed are given an NA/'no species found' designation. Data was measured, it is NOT missing, despite NAs providing some trickiness in working with R</t>
+  </si>
+  <si>
+    <t>Data in columns are the species, number, size, % etc found</t>
+  </si>
+  <si>
+    <t>Data in rows are individual observations from plots within sites</t>
+  </si>
+  <si>
+    <t>All plants were given a 4 leter species code, two from the first latin name, two from the second; all are listed on the lookups page</t>
+  </si>
+  <si>
+    <t>of 1 square meter frame</t>
+  </si>
+  <si>
+    <t>81-100%</t>
+  </si>
+  <si>
+    <t>61-80%</t>
+  </si>
+  <si>
+    <t>41-60%</t>
+  </si>
+  <si>
+    <t>21-40%</t>
+  </si>
+  <si>
+    <t>11-20%</t>
+  </si>
+  <si>
+    <t>6-10%</t>
+  </si>
+  <si>
+    <t>1-5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1% </t>
+  </si>
+  <si>
+    <t>Veg &amp; Ground Cover units: covering</t>
+  </si>
+  <si>
+    <t>Prism unit: 10BAF prism</t>
+  </si>
+  <si>
+    <t>Sapling unit: DBH in cm</t>
+  </si>
+  <si>
+    <t>Large seedling unit: count</t>
+  </si>
+  <si>
+    <t>Small seedling unit: count</t>
+  </si>
+  <si>
+    <t>There were 3 replicates of each treatment, where possible, in each region, except for control, which had 2 replicates in every region (and 3 in LI, as it was the first summer of data collection)</t>
+  </si>
+  <si>
+    <t>Sampling units came in 6 different treatment catgories: Spring RxFire, Fall RxFire, Harvest, Mow &amp; RxFire, Control, &amp; untreated Southern Pine Beetle outbreak</t>
+  </si>
+  <si>
+    <r>
+      <t>Lymantria dispar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> outbreaks in NH in 2022 and late frost in MA in 2023 impacted the foliar abundance of some plants measured in the vegetative percent cover classes.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Ground cover was classified into nine type classes (i.e. lichen, trash/junk, moss, road/trail, rock, water, mineral soil, wood, &amp; litter/duff) and abundance is characterized within the 1m² square plots, using the above eight cover classes. Water and trash/junk categories were never recorded. Litter depth measurements, measuring the depth of the O layer, were taken at the NW and SE corners of the 1m² frame at every other plot. Depths were measured up to 15cm, size of measuring tool.</t>
+  </si>
+  <si>
+    <t>Vegetation was measured at every other 1 square meter plot, with SW corner of frame at plot center. Percent cover is recorded for each species present using eight cover classes: 1 &lt;1%; 2 1-5%; 3 6-10%; 4 11-20%; 5 21-40%; 6 41-60%; 7 61-80%; 8 81-100%. Samples were taken (or photos) for unidentified plants</t>
+  </si>
+  <si>
+    <t>Binoculars were used the second year of sampling to look for mature, closed cones on trees. It was a rainy summer, which can contribute to cones being closed when they are not serotinous.</t>
+  </si>
+  <si>
+    <t>Prism data was collected at each plot, using the plot center and a 10BAF prism</t>
+  </si>
+  <si>
+    <t>Regeneration was measured at functional height and not stretched; e.g. scrub oak branches were not pulled up to see if they exceeded 50cm, but rather measured where at their natural, effective height</t>
+  </si>
+  <si>
+    <t>Saplings were &gt;/= 2.5cm and &lt;10cm DBH and measured in a 25 square meter circular plot;  size to one decimal point was recorded for each sapling, along with information about disease/defects</t>
+  </si>
+  <si>
+    <t>Large seedling (LS) were &gt;/= 50cm height and &lt;2.5cm DBH and measured in a 10 square meter circular plot; total number, along with number browsed and stump sprouts recorded. In 2022, there was a lymantria dispar outbreak in NH, some data was recorded about LYDI dispar but it was isolated to NH</t>
+  </si>
+  <si>
+    <t>Small seedling (SS), were &lt;50cm in height and measured in 1 square meter frame, with the SW corner of the frame located at the plot center; total number, number browsed, stump sprouts, and germinates recorded</t>
+  </si>
+  <si>
+    <t>Regeneration was measured in 3 size classes and plot sizes:</t>
+  </si>
+  <si>
+    <t>Sampling site data includes natural community type, soil series, treatment type, treatment year, and presence of invasive plants not captured in the regeneration and shrub/herbaceous sampling. Recorded plot data includes latitude, longitude, slope, and aspect.</t>
+  </si>
+  <si>
+    <t>Sites that were very large were subsampled. A center point was chosen visually with uniform/representative cover. An 8 HA/20A circular buffer was added around this central point. 40 meter buffers from unit edge were enforced where necessary and plots dropped within buffers or wrong natural communities (e.g. ponds)</t>
+  </si>
+  <si>
+    <t>Plot centers were GPS-ed using a Garmin handheld unit.</t>
+  </si>
+  <si>
+    <t>Plots were a minimum of 10 meters apart, collected on transected. Plot points were generated by use of the fishnet function in ArcGIS, snapped to a random point</t>
+  </si>
+  <si>
+    <t>Each site represents a treatment unit of pitch pine barren within a region. Each unit had an internal buffer of 30-40 meters and had between 18 and 25 plots located within them, with the exception of two RP D2, which was too small a unit and could only provide 9 plots with adequate buffering</t>
+  </si>
+  <si>
+    <t>Organization of the data file</t>
+  </si>
+  <si>
+    <t>Central Pine Barrens Joint Planning and Policy Commission, P. Weigand</t>
+  </si>
+  <si>
+    <t>University of Vermont, Dr. D'Amato</t>
+  </si>
+  <si>
+    <t>Spatial technology development program</t>
+  </si>
+  <si>
+    <t>USDA, Dr. Dodds</t>
+  </si>
+  <si>
+    <t>Source of Support</t>
+  </si>
+  <si>
+    <t>Regeneration dynamics in northeastern pitch pine barrens under different restoration scenarios</t>
+  </si>
+  <si>
+    <t>Name of Study</t>
+  </si>
+  <si>
+    <t>Stand/Unit names are used as site names, with abbreviations. E.g. 'West Branch 10' at Ossipee TNC is labled TNCO_WB10</t>
+  </si>
+  <si>
+    <t>Waterboro: TNC Waterboro</t>
+  </si>
+  <si>
+    <t>Ossipee: TNC Ossipee &amp; Society for the Protection of New Hampshire's Forests</t>
+  </si>
+  <si>
+    <t>Cape Cod: Camp Edwards, Mashpee Wildlife Management Area, &amp; Myles Standish State Forest</t>
+  </si>
+  <si>
+    <t>Albany: Albany Pine Bush Preserve</t>
+  </si>
+  <si>
+    <t>Long Island: Rocky Point Pine Barren State Forest, Werthiem National Wildlife Refuge, Southaven County Park, &amp; Hubbard County Park</t>
+  </si>
+  <si>
+    <t>Data were collected in Summer of 2022 &amp; 2023 in Pitch Pine Barrens on Long Island, NY, Albany, NY, Cape Cod area, MA, Ossipee area, NH, &amp; Waterboro, ME</t>
+  </si>
+  <si>
+    <t>Geographic Information</t>
+  </si>
+  <si>
+    <t>Kathleen Stutzman; kstutzma@gmail.com</t>
+  </si>
+  <si>
+    <t>Name &amp; Contact Info</t>
+  </si>
+  <si>
     <t>Plot_No</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Browsed</t>
+  </si>
+  <si>
+    <t>StumpSprout</t>
+  </si>
+  <si>
+    <t>Germinate</t>
+  </si>
+  <si>
+    <t>LYDI_Defo</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2620,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2484,6 +2664,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2505,7 +2700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2517,6 +2712,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2830,6 +3033,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A9A06-C1DD-3F46-8075-CC05F732B749}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803182A4-0DBD-FE48-ADB6-3CE2D70CCDC2}">
   <dimension ref="A1:F243"/>
   <sheetViews>
@@ -5530,7 +6065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C30D969-EB47-424C-B185-AD5A2274F503}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -6518,13 +7053,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEA277-0E57-8840-A58F-064455B4C014}">
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6544,25 +7079,25 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>781</v>
+        <v>847</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>782</v>
+        <v>848</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>784</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,7 +7105,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -6600,7 +7135,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>215</v>
@@ -6630,7 +7165,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>215</v>
@@ -6660,7 +7195,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>216</v>
@@ -6690,7 +7225,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>217</v>
@@ -6720,7 +7255,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>218</v>
@@ -6750,7 +7285,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>218</v>
@@ -6780,7 +7315,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>219</v>
@@ -6810,7 +7345,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>220</v>
@@ -6840,7 +7375,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>221</v>
@@ -6870,7 +7405,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>222</v>
@@ -6900,7 +7435,7 @@
         <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>223</v>
@@ -6930,7 +7465,7 @@
         <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>223</v>
@@ -6960,7 +7495,7 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>224</v>
@@ -6990,7 +7525,7 @@
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>225</v>
@@ -7020,7 +7555,7 @@
         <v>774</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>226</v>
@@ -7050,7 +7585,7 @@
         <v>774</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>227</v>
@@ -7080,7 +7615,7 @@
         <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>228</v>
@@ -7110,7 +7645,7 @@
         <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>228</v>
@@ -7140,7 +7675,7 @@
         <v>774</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>229</v>
@@ -7170,7 +7705,7 @@
         <v>774</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>230</v>
@@ -7200,7 +7735,7 @@
         <v>774</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>230</v>
@@ -7230,7 +7765,7 @@
         <v>774</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>231</v>
@@ -7260,7 +7795,7 @@
         <v>774</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>231</v>
@@ -7290,7 +7825,7 @@
         <v>774</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>231</v>
@@ -7320,7 +7855,7 @@
         <v>774</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>232</v>
@@ -7350,7 +7885,7 @@
         <v>774</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>233</v>
@@ -7380,7 +7915,7 @@
         <v>774</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>234</v>
@@ -7410,7 +7945,7 @@
         <v>774</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>235</v>
@@ -7440,7 +7975,7 @@
         <v>774</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>235</v>
@@ -7470,7 +8005,7 @@
         <v>775</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>45</v>
@@ -7500,7 +8035,7 @@
         <v>775</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>46</v>
@@ -7530,7 +8065,7 @@
         <v>775</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -7560,7 +8095,7 @@
         <v>775</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>48</v>
@@ -7590,7 +8125,7 @@
         <v>775</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>48</v>
@@ -7620,7 +8155,7 @@
         <v>775</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>49</v>
@@ -7650,7 +8185,7 @@
         <v>775</v>
       </c>
       <c r="B38" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -7680,7 +8215,7 @@
         <v>775</v>
       </c>
       <c r="B39" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C39">
         <v>51</v>
@@ -7710,7 +8245,7 @@
         <v>775</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C40">
         <v>52</v>
@@ -7740,7 +8275,7 @@
         <v>775</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C41">
         <v>53</v>
@@ -7770,7 +8305,7 @@
         <v>775</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C42">
         <v>54</v>
@@ -7800,7 +8335,7 @@
         <v>775</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C43">
         <v>55</v>
@@ -7830,7 +8365,7 @@
         <v>775</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C44">
         <v>56</v>
@@ -7860,7 +8395,7 @@
         <v>775</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C45">
         <v>57</v>
@@ -7890,7 +8425,7 @@
         <v>775</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46">
         <v>58</v>
@@ -7920,7 +8455,7 @@
         <v>775</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C47">
         <v>59</v>
@@ -7950,7 +8485,7 @@
         <v>775</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C48">
         <v>59</v>
@@ -7980,7 +8515,7 @@
         <v>775</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -8010,7 +8545,7 @@
         <v>775</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C50">
         <v>61</v>
@@ -8040,7 +8575,7 @@
         <v>775</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C51">
         <v>61</v>
@@ -8070,7 +8605,7 @@
         <v>775</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C52">
         <v>62</v>
@@ -8100,7 +8635,7 @@
         <v>775</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C53">
         <v>63</v>
@@ -8130,7 +8665,7 @@
         <v>775</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -8160,7 +8695,7 @@
         <v>775</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>64</v>
@@ -8190,7 +8725,7 @@
         <v>775</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C56">
         <v>65</v>
@@ -8220,7 +8755,7 @@
         <v>775</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C57">
         <v>65</v>
@@ -8250,7 +8785,7 @@
         <v>775</v>
       </c>
       <c r="B58" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C58">
         <v>66</v>
@@ -8280,7 +8815,7 @@
         <v>775</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C59">
         <v>67</v>
@@ -8310,7 +8845,7 @@
         <v>775</v>
       </c>
       <c r="B60" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C60">
         <v>68</v>
@@ -8340,7 +8875,7 @@
         <v>775</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C61">
         <v>69</v>
@@ -8370,7 +8905,7 @@
         <v>776</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C62">
         <v>304</v>
@@ -8400,7 +8935,7 @@
         <v>776</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C63">
         <v>305</v>
@@ -8430,7 +8965,7 @@
         <v>776</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C64">
         <v>306</v>
@@ -8460,7 +8995,7 @@
         <v>776</v>
       </c>
       <c r="B65" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C65">
         <v>307</v>
@@ -8490,7 +9025,7 @@
         <v>776</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C66">
         <v>308</v>
@@ -8520,7 +9055,7 @@
         <v>776</v>
       </c>
       <c r="B67" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C67">
         <v>309</v>
@@ -8550,7 +9085,7 @@
         <v>776</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C68">
         <v>310</v>
@@ -8580,7 +9115,7 @@
         <v>776</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C69">
         <v>311</v>
@@ -8610,7 +9145,7 @@
         <v>776</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C70">
         <v>312</v>
@@ -8640,7 +9175,7 @@
         <v>776</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C71">
         <v>313</v>
@@ -8670,7 +9205,7 @@
         <v>776</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72">
         <v>314</v>
@@ -8700,7 +9235,7 @@
         <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C73">
         <v>315</v>
@@ -8730,7 +9265,7 @@
         <v>776</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C74">
         <v>316</v>
@@ -8760,7 +9295,7 @@
         <v>776</v>
       </c>
       <c r="B75" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C75">
         <v>317</v>
@@ -8790,7 +9325,7 @@
         <v>776</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C76">
         <v>318</v>
@@ -8820,7 +9355,7 @@
         <v>776</v>
       </c>
       <c r="B77" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C77">
         <v>319</v>
@@ -8850,7 +9385,7 @@
         <v>776</v>
       </c>
       <c r="B78" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C78">
         <v>320</v>
@@ -8880,7 +9415,7 @@
         <v>776</v>
       </c>
       <c r="B79" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C79">
         <v>321</v>
@@ -8910,7 +9445,7 @@
         <v>776</v>
       </c>
       <c r="B80" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C80">
         <v>322</v>
@@ -8940,7 +9475,7 @@
         <v>776</v>
       </c>
       <c r="B81" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C81">
         <v>323</v>
@@ -8970,7 +9505,7 @@
         <v>776</v>
       </c>
       <c r="B82" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C82">
         <v>324</v>
@@ -9000,7 +9535,7 @@
         <v>776</v>
       </c>
       <c r="B83" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C83">
         <v>325</v>
@@ -9030,7 +9565,7 @@
         <v>776</v>
       </c>
       <c r="B84" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C84">
         <v>326</v>
@@ -9060,7 +9595,7 @@
         <v>776</v>
       </c>
       <c r="B85" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C85">
         <v>327</v>
@@ -9090,7 +9625,7 @@
         <v>776</v>
       </c>
       <c r="B86" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C86">
         <v>328</v>
@@ -9120,13 +9655,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E678F60-55D0-B74B-A838-9B20E212A2D1}">
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B74"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9144,25 +9679,25 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>781</v>
+        <v>847</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>782</v>
+        <v>848</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>785</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -9170,7 +9705,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -9200,7 +9735,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>215</v>
@@ -9230,7 +9765,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>216</v>
@@ -9260,7 +9795,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>217</v>
@@ -9290,7 +9825,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>218</v>
@@ -9320,7 +9855,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>219</v>
@@ -9350,7 +9885,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>220</v>
@@ -9380,7 +9915,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>221</v>
@@ -9410,7 +9945,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>222</v>
@@ -9440,7 +9975,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>223</v>
@@ -9470,7 +10005,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>224</v>
@@ -9500,7 +10035,7 @@
         <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>225</v>
@@ -9530,7 +10065,7 @@
         <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>226</v>
@@ -9560,7 +10095,7 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>227</v>
@@ -9590,7 +10125,7 @@
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>228</v>
@@ -9620,7 +10155,7 @@
         <v>774</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>229</v>
@@ -9650,7 +10185,7 @@
         <v>774</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>230</v>
@@ -9680,7 +10215,7 @@
         <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>231</v>
@@ -9710,7 +10245,7 @@
         <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>232</v>
@@ -9740,7 +10275,7 @@
         <v>774</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>233</v>
@@ -9770,7 +10305,7 @@
         <v>774</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>234</v>
@@ -9800,7 +10335,7 @@
         <v>774</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>235</v>
@@ -9830,7 +10365,7 @@
         <v>775</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>45</v>
@@ -9860,7 +10395,7 @@
         <v>775</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>46</v>
@@ -9890,7 +10425,7 @@
         <v>775</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>47</v>
@@ -9920,7 +10455,7 @@
         <v>775</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>48</v>
@@ -9950,7 +10485,7 @@
         <v>775</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>49</v>
@@ -9980,7 +10515,7 @@
         <v>775</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -10010,7 +10545,7 @@
         <v>775</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>51</v>
@@ -10040,7 +10575,7 @@
         <v>775</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>52</v>
@@ -10070,7 +10605,7 @@
         <v>775</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>53</v>
@@ -10100,7 +10635,7 @@
         <v>775</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>54</v>
@@ -10130,7 +10665,7 @@
         <v>775</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>55</v>
@@ -10160,7 +10695,7 @@
         <v>775</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>56</v>
@@ -10190,7 +10725,7 @@
         <v>775</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>57</v>
@@ -10220,7 +10755,7 @@
         <v>775</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>58</v>
@@ -10250,7 +10785,7 @@
         <v>775</v>
       </c>
       <c r="B38" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C38">
         <v>59</v>
@@ -10280,7 +10815,7 @@
         <v>775</v>
       </c>
       <c r="B39" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C39">
         <v>60</v>
@@ -10310,7 +10845,7 @@
         <v>775</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C40">
         <v>61</v>
@@ -10340,7 +10875,7 @@
         <v>775</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C41">
         <v>62</v>
@@ -10370,7 +10905,7 @@
         <v>775</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C42">
         <v>62</v>
@@ -10400,7 +10935,7 @@
         <v>775</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C43">
         <v>63</v>
@@ -10430,7 +10965,7 @@
         <v>775</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C44">
         <v>64</v>
@@ -10460,7 +10995,7 @@
         <v>775</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C45">
         <v>65</v>
@@ -10490,7 +11025,7 @@
         <v>775</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46">
         <v>66</v>
@@ -10520,7 +11055,7 @@
         <v>775</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C47">
         <v>67</v>
@@ -10550,7 +11085,7 @@
         <v>775</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C48">
         <v>68</v>
@@ -10580,7 +11115,7 @@
         <v>775</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C49">
         <v>69</v>
@@ -10610,7 +11145,7 @@
         <v>776</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C50">
         <v>304</v>
@@ -10640,7 +11175,7 @@
         <v>776</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C51">
         <v>305</v>
@@ -10670,7 +11205,7 @@
         <v>776</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C52">
         <v>306</v>
@@ -10700,7 +11235,7 @@
         <v>776</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C53">
         <v>307</v>
@@ -10730,7 +11265,7 @@
         <v>776</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C54">
         <v>308</v>
@@ -10760,7 +11295,7 @@
         <v>776</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>309</v>
@@ -10790,7 +11325,7 @@
         <v>776</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C56">
         <v>310</v>
@@ -10820,7 +11355,7 @@
         <v>776</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C57">
         <v>311</v>
@@ -10850,7 +11385,7 @@
         <v>776</v>
       </c>
       <c r="B58" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C58">
         <v>312</v>
@@ -10880,7 +11415,7 @@
         <v>776</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C59">
         <v>313</v>
@@ -10910,7 +11445,7 @@
         <v>776</v>
       </c>
       <c r="B60" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C60">
         <v>314</v>
@@ -10940,7 +11475,7 @@
         <v>776</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C61">
         <v>315</v>
@@ -10970,7 +11505,7 @@
         <v>776</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C62">
         <v>316</v>
@@ -11000,7 +11535,7 @@
         <v>776</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C63">
         <v>317</v>
@@ -11030,7 +11565,7 @@
         <v>776</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C64">
         <v>318</v>
@@ -11060,7 +11595,7 @@
         <v>776</v>
       </c>
       <c r="B65" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C65">
         <v>319</v>
@@ -11090,7 +11625,7 @@
         <v>776</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C66">
         <v>320</v>
@@ -11120,7 +11655,7 @@
         <v>776</v>
       </c>
       <c r="B67" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C67">
         <v>321</v>
@@ -11150,7 +11685,7 @@
         <v>776</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C68">
         <v>322</v>
@@ -11180,7 +11715,7 @@
         <v>776</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C69">
         <v>323</v>
@@ -11210,7 +11745,7 @@
         <v>776</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C70">
         <v>324</v>
@@ -11240,7 +11775,7 @@
         <v>776</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C71">
         <v>325</v>
@@ -11270,7 +11805,7 @@
         <v>776</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72">
         <v>326</v>
@@ -11300,7 +11835,7 @@
         <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C73">
         <v>327</v>
@@ -11330,7 +11865,7 @@
         <v>776</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C74">
         <v>328</v>
@@ -11360,13 +11895,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB268A33-3B3B-E24A-82DD-F59217D2B625}">
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B76"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11379,31 +11914,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>358</v>
       </c>
     </row>
@@ -11412,7 +11947,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -11433,7 +11968,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>215</v>
@@ -11454,7 +11989,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>216</v>
@@ -11475,7 +12010,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>217</v>
@@ -11496,7 +12031,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>218</v>
@@ -11517,7 +12052,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>219</v>
@@ -11538,7 +12073,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>220</v>
@@ -11559,7 +12094,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>221</v>
@@ -11580,7 +12115,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>222</v>
@@ -11601,7 +12136,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>223</v>
@@ -11622,7 +12157,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>224</v>
@@ -11643,7 +12178,7 @@
         <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>225</v>
@@ -11670,7 +12205,7 @@
         <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>226</v>
@@ -11691,7 +12226,7 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>227</v>
@@ -11712,7 +12247,7 @@
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>228</v>
@@ -11733,7 +12268,7 @@
         <v>774</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>229</v>
@@ -11754,7 +12289,7 @@
         <v>774</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>230</v>
@@ -11775,7 +12310,7 @@
         <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>231</v>
@@ -11796,7 +12331,7 @@
         <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>232</v>
@@ -11817,7 +12352,7 @@
         <v>774</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>233</v>
@@ -11838,7 +12373,7 @@
         <v>774</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>234</v>
@@ -11859,7 +12394,7 @@
         <v>774</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>235</v>
@@ -11880,7 +12415,7 @@
         <v>775</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>45</v>
@@ -11901,7 +12436,7 @@
         <v>775</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>46</v>
@@ -11922,7 +12457,7 @@
         <v>775</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>47</v>
@@ -11943,7 +12478,7 @@
         <v>775</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>48</v>
@@ -11964,7 +12499,7 @@
         <v>775</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>49</v>
@@ -11985,7 +12520,7 @@
         <v>775</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -12006,7 +12541,7 @@
         <v>775</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>51</v>
@@ -12027,7 +12562,7 @@
         <v>775</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>52</v>
@@ -12048,7 +12583,7 @@
         <v>775</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>53</v>
@@ -12069,7 +12604,7 @@
         <v>775</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>54</v>
@@ -12090,7 +12625,7 @@
         <v>775</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>55</v>
@@ -12111,7 +12646,7 @@
         <v>775</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>56</v>
@@ -12132,7 +12667,7 @@
         <v>775</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>57</v>
@@ -12156,7 +12691,7 @@
         <v>775</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>58</v>
@@ -12177,7 +12712,7 @@
         <v>775</v>
       </c>
       <c r="B38" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C38">
         <v>59</v>
@@ -12198,7 +12733,7 @@
         <v>775</v>
       </c>
       <c r="B39" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C39">
         <v>60</v>
@@ -12219,7 +12754,7 @@
         <v>775</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C40">
         <v>61</v>
@@ -12240,7 +12775,7 @@
         <v>775</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C41">
         <v>62</v>
@@ -12261,7 +12796,7 @@
         <v>775</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C42">
         <v>63</v>
@@ -12282,7 +12817,7 @@
         <v>775</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C43">
         <v>64</v>
@@ -12303,7 +12838,7 @@
         <v>775</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C44">
         <v>65</v>
@@ -12324,7 +12859,7 @@
         <v>775</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C45">
         <v>66</v>
@@ -12345,7 +12880,7 @@
         <v>775</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46">
         <v>66</v>
@@ -12366,7 +12901,7 @@
         <v>775</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C47">
         <v>66</v>
@@ -12387,7 +12922,7 @@
         <v>775</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C48">
         <v>66</v>
@@ -12411,7 +12946,7 @@
         <v>775</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C49">
         <v>67</v>
@@ -12435,7 +12970,7 @@
         <v>775</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C50">
         <v>68</v>
@@ -12456,7 +12991,7 @@
         <v>775</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C51">
         <v>69</v>
@@ -12480,7 +13015,7 @@
         <v>776</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C52">
         <v>304</v>
@@ -12501,7 +13036,7 @@
         <v>776</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C53">
         <v>305</v>
@@ -12522,7 +13057,7 @@
         <v>776</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C54">
         <v>306</v>
@@ -12543,7 +13078,7 @@
         <v>776</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>307</v>
@@ -12564,7 +13099,7 @@
         <v>776</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C56">
         <v>308</v>
@@ -12585,7 +13120,7 @@
         <v>776</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C57">
         <v>309</v>
@@ -12606,7 +13141,7 @@
         <v>776</v>
       </c>
       <c r="B58" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C58">
         <v>310</v>
@@ -12627,7 +13162,7 @@
         <v>776</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C59">
         <v>311</v>
@@ -12648,7 +13183,7 @@
         <v>776</v>
       </c>
       <c r="B60" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C60">
         <v>312</v>
@@ -12669,7 +13204,7 @@
         <v>776</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C61">
         <v>313</v>
@@ -12690,7 +13225,7 @@
         <v>776</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C62">
         <v>314</v>
@@ -12711,7 +13246,7 @@
         <v>776</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C63">
         <v>315</v>
@@ -12732,7 +13267,7 @@
         <v>776</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C64">
         <v>316</v>
@@ -12753,7 +13288,7 @@
         <v>776</v>
       </c>
       <c r="B65" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C65">
         <v>317</v>
@@ -12774,7 +13309,7 @@
         <v>776</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C66">
         <v>318</v>
@@ -12795,7 +13330,7 @@
         <v>776</v>
       </c>
       <c r="B67" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C67">
         <v>319</v>
@@ -12816,7 +13351,7 @@
         <v>776</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C68">
         <v>320</v>
@@ -12837,7 +13372,7 @@
         <v>776</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C69">
         <v>321</v>
@@ -12858,7 +13393,7 @@
         <v>776</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C70">
         <v>322</v>
@@ -12879,7 +13414,7 @@
         <v>776</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C71">
         <v>323</v>
@@ -12900,7 +13435,7 @@
         <v>776</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72">
         <v>324</v>
@@ -12921,7 +13456,7 @@
         <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C73">
         <v>325</v>
@@ -12942,7 +13477,7 @@
         <v>776</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C74">
         <v>326</v>
@@ -12963,7 +13498,7 @@
         <v>776</v>
       </c>
       <c r="B75" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C75">
         <v>327</v>
@@ -12984,7 +13519,7 @@
         <v>776</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C76">
         <v>328</v>
@@ -13005,11 +13540,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -13028,19 +13563,19 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>795</v>
+        <v>846</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -13048,7 +13583,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -13072,7 +13607,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>214</v>
@@ -13096,7 +13631,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>214</v>
@@ -13120,7 +13655,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>215</v>
@@ -13144,7 +13679,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>215</v>
@@ -13168,7 +13703,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>215</v>
@@ -13192,7 +13727,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>215</v>
@@ -13216,7 +13751,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>216</v>
@@ -13240,7 +13775,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>216</v>
@@ -13264,7 +13799,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>217</v>
@@ -13288,7 +13823,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>217</v>
@@ -13312,7 +13847,7 @@
         <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>217</v>
@@ -13336,7 +13871,7 @@
         <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>218</v>
@@ -13360,7 +13895,7 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>218</v>
@@ -13384,7 +13919,7 @@
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>218</v>
@@ -13408,7 +13943,7 @@
         <v>774</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>218</v>
@@ -13432,7 +13967,7 @@
         <v>774</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>219</v>
@@ -13456,7 +13991,7 @@
         <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>219</v>
@@ -13480,7 +14015,7 @@
         <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>219</v>
@@ -13504,7 +14039,7 @@
         <v>774</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>220</v>
@@ -13528,7 +14063,7 @@
         <v>774</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>220</v>
@@ -13552,7 +14087,7 @@
         <v>774</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>221</v>
@@ -13576,7 +14111,7 @@
         <v>774</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>222</v>
@@ -13600,7 +14135,7 @@
         <v>774</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>222</v>
@@ -13624,7 +14159,7 @@
         <v>774</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>222</v>
@@ -13648,7 +14183,7 @@
         <v>774</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>223</v>
@@ -13672,7 +14207,7 @@
         <v>774</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>223</v>
@@ -13696,7 +14231,7 @@
         <v>774</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>224</v>
@@ -13720,7 +14255,7 @@
         <v>774</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>224</v>
@@ -13744,7 +14279,7 @@
         <v>774</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>224</v>
@@ -13768,7 +14303,7 @@
         <v>774</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>225</v>
@@ -13792,7 +14327,7 @@
         <v>774</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>225</v>
@@ -13816,7 +14351,7 @@
         <v>774</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>225</v>
@@ -13840,7 +14375,7 @@
         <v>774</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>226</v>
@@ -13864,7 +14399,7 @@
         <v>774</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>226</v>
@@ -13888,7 +14423,7 @@
         <v>774</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>227</v>
@@ -13912,7 +14447,7 @@
         <v>774</v>
       </c>
       <c r="B38" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C38">
         <v>227</v>
@@ -13936,7 +14471,7 @@
         <v>774</v>
       </c>
       <c r="B39" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C39">
         <v>228</v>
@@ -13960,7 +14495,7 @@
         <v>774</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C40">
         <v>228</v>
@@ -13984,7 +14519,7 @@
         <v>774</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C41">
         <v>228</v>
@@ -14008,7 +14543,7 @@
         <v>774</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C42">
         <v>229</v>
@@ -14032,7 +14567,7 @@
         <v>774</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C43">
         <v>229</v>
@@ -14056,7 +14591,7 @@
         <v>774</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C44">
         <v>230</v>
@@ -14080,7 +14615,7 @@
         <v>774</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C45">
         <v>230</v>
@@ -14104,7 +14639,7 @@
         <v>774</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46">
         <v>230</v>
@@ -14128,7 +14663,7 @@
         <v>774</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C47">
         <v>231</v>
@@ -14152,7 +14687,7 @@
         <v>774</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C48">
         <v>231</v>
@@ -14176,7 +14711,7 @@
         <v>774</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C49">
         <v>231</v>
@@ -14200,7 +14735,7 @@
         <v>774</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C50">
         <v>232</v>
@@ -14224,7 +14759,7 @@
         <v>774</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C51">
         <v>232</v>
@@ -14248,7 +14783,7 @@
         <v>774</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C52">
         <v>232</v>
@@ -14272,7 +14807,7 @@
         <v>774</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C53">
         <v>233</v>
@@ -14296,7 +14831,7 @@
         <v>774</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C54">
         <v>233</v>
@@ -14320,7 +14855,7 @@
         <v>774</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>233</v>
@@ -14344,7 +14879,7 @@
         <v>774</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C56">
         <v>233</v>
@@ -14368,7 +14903,7 @@
         <v>774</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C57">
         <v>233</v>
@@ -14392,7 +14927,7 @@
         <v>774</v>
       </c>
       <c r="B58" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C58">
         <v>234</v>
@@ -14416,7 +14951,7 @@
         <v>774</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C59">
         <v>234</v>
@@ -14440,7 +14975,7 @@
         <v>774</v>
       </c>
       <c r="B60" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C60">
         <v>235</v>
@@ -14464,7 +14999,7 @@
         <v>774</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C61">
         <v>235</v>
@@ -14488,7 +15023,7 @@
         <v>775</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C62">
         <v>45</v>
@@ -14512,7 +15047,7 @@
         <v>775</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C63">
         <v>45</v>
@@ -14536,7 +15071,7 @@
         <v>775</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C64">
         <v>46</v>
@@ -14560,7 +15095,7 @@
         <v>775</v>
       </c>
       <c r="B65" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C65">
         <v>46</v>
@@ -14584,7 +15119,7 @@
         <v>775</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C66">
         <v>46</v>
@@ -14608,7 +15143,7 @@
         <v>775</v>
       </c>
       <c r="B67" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C67">
         <v>47</v>
@@ -14632,7 +15167,7 @@
         <v>775</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C68">
         <v>47</v>
@@ -14656,7 +15191,7 @@
         <v>775</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C69">
         <v>47</v>
@@ -14680,7 +15215,7 @@
         <v>775</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C70">
         <v>48</v>
@@ -14704,7 +15239,7 @@
         <v>775</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C71">
         <v>49</v>
@@ -14728,7 +15263,7 @@
         <v>775</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72">
         <v>49</v>
@@ -14752,7 +15287,7 @@
         <v>775</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C73">
         <v>49</v>
@@ -14776,7 +15311,7 @@
         <v>775</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C74">
         <v>50</v>
@@ -14800,7 +15335,7 @@
         <v>775</v>
       </c>
       <c r="B75" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C75">
         <v>51</v>
@@ -14824,7 +15359,7 @@
         <v>775</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C76">
         <v>51</v>
@@ -14848,7 +15383,7 @@
         <v>775</v>
       </c>
       <c r="B77" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C77">
         <v>51</v>
@@ -14872,7 +15407,7 @@
         <v>775</v>
       </c>
       <c r="B78" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C78">
         <v>52</v>
@@ -14896,7 +15431,7 @@
         <v>775</v>
       </c>
       <c r="B79" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C79">
         <v>52</v>
@@ -14920,7 +15455,7 @@
         <v>775</v>
       </c>
       <c r="B80" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C80">
         <v>53</v>
@@ -14944,7 +15479,7 @@
         <v>775</v>
       </c>
       <c r="B81" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C81">
         <v>53</v>
@@ -14968,7 +15503,7 @@
         <v>775</v>
       </c>
       <c r="B82" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C82">
         <v>53</v>
@@ -14992,7 +15527,7 @@
         <v>775</v>
       </c>
       <c r="B83" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C83">
         <v>54</v>
@@ -15016,7 +15551,7 @@
         <v>775</v>
       </c>
       <c r="B84" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C84">
         <v>54</v>
@@ -15040,7 +15575,7 @@
         <v>775</v>
       </c>
       <c r="B85" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C85">
         <v>54</v>
@@ -15064,7 +15599,7 @@
         <v>775</v>
       </c>
       <c r="B86" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C86">
         <v>55</v>
@@ -15088,7 +15623,7 @@
         <v>775</v>
       </c>
       <c r="B87" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C87">
         <v>56</v>
@@ -15112,7 +15647,7 @@
         <v>775</v>
       </c>
       <c r="B88" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C88">
         <v>56</v>
@@ -15136,7 +15671,7 @@
         <v>775</v>
       </c>
       <c r="B89" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C89">
         <v>56</v>
@@ -15160,7 +15695,7 @@
         <v>775</v>
       </c>
       <c r="B90" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C90">
         <v>57</v>
@@ -15184,7 +15719,7 @@
         <v>775</v>
       </c>
       <c r="B91" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C91">
         <v>57</v>
@@ -15208,7 +15743,7 @@
         <v>775</v>
       </c>
       <c r="B92" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C92">
         <v>57</v>
@@ -15232,7 +15767,7 @@
         <v>775</v>
       </c>
       <c r="B93" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C93">
         <v>58</v>
@@ -15256,7 +15791,7 @@
         <v>775</v>
       </c>
       <c r="B94" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C94">
         <v>58</v>
@@ -15280,7 +15815,7 @@
         <v>775</v>
       </c>
       <c r="B95" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C95">
         <v>59</v>
@@ -15304,7 +15839,7 @@
         <v>775</v>
       </c>
       <c r="B96" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C96">
         <v>59</v>
@@ -15328,7 +15863,7 @@
         <v>775</v>
       </c>
       <c r="B97" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C97">
         <v>59</v>
@@ -15352,7 +15887,7 @@
         <v>775</v>
       </c>
       <c r="B98" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C98">
         <v>60</v>
@@ -15376,7 +15911,7 @@
         <v>775</v>
       </c>
       <c r="B99" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C99">
         <v>60</v>
@@ -15400,7 +15935,7 @@
         <v>775</v>
       </c>
       <c r="B100" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C100">
         <v>61</v>
@@ -15424,7 +15959,7 @@
         <v>775</v>
       </c>
       <c r="B101" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C101">
         <v>61</v>
@@ -15448,7 +15983,7 @@
         <v>775</v>
       </c>
       <c r="B102" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C102">
         <v>62</v>
@@ -15472,7 +16007,7 @@
         <v>775</v>
       </c>
       <c r="B103" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C103">
         <v>62</v>
@@ -15496,7 +16031,7 @@
         <v>775</v>
       </c>
       <c r="B104" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C104">
         <v>62</v>
@@ -15520,7 +16055,7 @@
         <v>775</v>
       </c>
       <c r="B105" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C105">
         <v>63</v>
@@ -15544,7 +16079,7 @@
         <v>775</v>
       </c>
       <c r="B106" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C106">
         <v>63</v>
@@ -15568,7 +16103,7 @@
         <v>775</v>
       </c>
       <c r="B107" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C107">
         <v>64</v>
@@ -15592,7 +16127,7 @@
         <v>775</v>
       </c>
       <c r="B108" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C108">
         <v>64</v>
@@ -15616,7 +16151,7 @@
         <v>775</v>
       </c>
       <c r="B109" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C109">
         <v>64</v>
@@ -15640,7 +16175,7 @@
         <v>775</v>
       </c>
       <c r="B110" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C110">
         <v>65</v>
@@ -15664,7 +16199,7 @@
         <v>775</v>
       </c>
       <c r="B111" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C111">
         <v>65</v>
@@ -15688,7 +16223,7 @@
         <v>775</v>
       </c>
       <c r="B112" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C112">
         <v>65</v>
@@ -15712,7 +16247,7 @@
         <v>775</v>
       </c>
       <c r="B113" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C113">
         <v>66</v>
@@ -15736,7 +16271,7 @@
         <v>775</v>
       </c>
       <c r="B114" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C114">
         <v>66</v>
@@ -15760,7 +16295,7 @@
         <v>775</v>
       </c>
       <c r="B115" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C115">
         <v>67</v>
@@ -15784,7 +16319,7 @@
         <v>775</v>
       </c>
       <c r="B116" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C116">
         <v>67</v>
@@ -15808,7 +16343,7 @@
         <v>775</v>
       </c>
       <c r="B117" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C117">
         <v>68</v>
@@ -15832,7 +16367,7 @@
         <v>775</v>
       </c>
       <c r="B118" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C118">
         <v>68</v>
@@ -15856,7 +16391,7 @@
         <v>775</v>
       </c>
       <c r="B119" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C119">
         <v>68</v>
@@ -15880,7 +16415,7 @@
         <v>775</v>
       </c>
       <c r="B120" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C120">
         <v>69</v>
@@ -15904,7 +16439,7 @@
         <v>775</v>
       </c>
       <c r="B121" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C121">
         <v>69</v>
@@ -15928,7 +16463,7 @@
         <v>775</v>
       </c>
       <c r="B122" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C122">
         <v>69</v>
@@ -15952,7 +16487,7 @@
         <v>775</v>
       </c>
       <c r="B123" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C123">
         <v>69</v>
@@ -15976,7 +16511,7 @@
         <v>776</v>
       </c>
       <c r="B124" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C124">
         <v>304</v>
@@ -16000,7 +16535,7 @@
         <v>776</v>
       </c>
       <c r="B125" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C125">
         <v>305</v>
@@ -16024,7 +16559,7 @@
         <v>776</v>
       </c>
       <c r="B126" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C126">
         <v>306</v>
@@ -16048,7 +16583,7 @@
         <v>776</v>
       </c>
       <c r="B127" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C127">
         <v>307</v>
@@ -16072,7 +16607,7 @@
         <v>776</v>
       </c>
       <c r="B128" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C128">
         <v>308</v>
@@ -16096,7 +16631,7 @@
         <v>776</v>
       </c>
       <c r="B129" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C129">
         <v>309</v>
@@ -16120,7 +16655,7 @@
         <v>776</v>
       </c>
       <c r="B130" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C130">
         <v>310</v>
@@ -16144,7 +16679,7 @@
         <v>776</v>
       </c>
       <c r="B131" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C131">
         <v>311</v>
@@ -16168,7 +16703,7 @@
         <v>776</v>
       </c>
       <c r="B132" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C132">
         <v>312</v>
@@ -16192,7 +16727,7 @@
         <v>776</v>
       </c>
       <c r="B133" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C133">
         <v>313</v>
@@ -16216,7 +16751,7 @@
         <v>776</v>
       </c>
       <c r="B134" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C134">
         <v>314</v>
@@ -16240,7 +16775,7 @@
         <v>776</v>
       </c>
       <c r="B135" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C135">
         <v>315</v>
@@ -16264,7 +16799,7 @@
         <v>776</v>
       </c>
       <c r="B136" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C136">
         <v>316</v>
@@ -16288,7 +16823,7 @@
         <v>776</v>
       </c>
       <c r="B137" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C137">
         <v>316</v>
@@ -16312,7 +16847,7 @@
         <v>776</v>
       </c>
       <c r="B138" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C138">
         <v>317</v>
@@ -16336,7 +16871,7 @@
         <v>776</v>
       </c>
       <c r="B139" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C139">
         <v>317</v>
@@ -16360,7 +16895,7 @@
         <v>776</v>
       </c>
       <c r="B140" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C140">
         <v>317</v>
@@ -16384,7 +16919,7 @@
         <v>776</v>
       </c>
       <c r="B141" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C141">
         <v>318</v>
@@ -16408,7 +16943,7 @@
         <v>776</v>
       </c>
       <c r="B142" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C142">
         <v>318</v>
@@ -16432,7 +16967,7 @@
         <v>776</v>
       </c>
       <c r="B143" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C143">
         <v>319</v>
@@ -16456,7 +16991,7 @@
         <v>776</v>
       </c>
       <c r="B144" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C144">
         <v>319</v>
@@ -16480,7 +17015,7 @@
         <v>776</v>
       </c>
       <c r="B145" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C145">
         <v>319</v>
@@ -16504,7 +17039,7 @@
         <v>776</v>
       </c>
       <c r="B146" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C146">
         <v>320</v>
@@ -16528,7 +17063,7 @@
         <v>776</v>
       </c>
       <c r="B147" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C147">
         <v>320</v>
@@ -16552,7 +17087,7 @@
         <v>776</v>
       </c>
       <c r="B148" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C148">
         <v>321</v>
@@ -16576,7 +17111,7 @@
         <v>776</v>
       </c>
       <c r="B149" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C149">
         <v>321</v>
@@ -16600,7 +17135,7 @@
         <v>776</v>
       </c>
       <c r="B150" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C150">
         <v>322</v>
@@ -16624,7 +17159,7 @@
         <v>776</v>
       </c>
       <c r="B151" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C151">
         <v>322</v>
@@ -16648,7 +17183,7 @@
         <v>776</v>
       </c>
       <c r="B152" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C152">
         <v>323</v>
@@ -16672,7 +17207,7 @@
         <v>776</v>
       </c>
       <c r="B153" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C153">
         <v>323</v>
@@ -16696,7 +17231,7 @@
         <v>776</v>
       </c>
       <c r="B154" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C154">
         <v>324</v>
@@ -16720,7 +17255,7 @@
         <v>776</v>
       </c>
       <c r="B155" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C155">
         <v>325</v>
@@ -16744,7 +17279,7 @@
         <v>776</v>
       </c>
       <c r="B156" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C156">
         <v>326</v>
@@ -16768,7 +17303,7 @@
         <v>776</v>
       </c>
       <c r="B157" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C157">
         <v>326</v>
@@ -16792,7 +17327,7 @@
         <v>776</v>
       </c>
       <c r="B158" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C158">
         <v>327</v>
@@ -16816,7 +17351,7 @@
         <v>776</v>
       </c>
       <c r="B159" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C159">
         <v>327</v>
@@ -16840,7 +17375,7 @@
         <v>776</v>
       </c>
       <c r="B160" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C160">
         <v>327</v>
@@ -16864,7 +17399,7 @@
         <v>776</v>
       </c>
       <c r="B161" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C161">
         <v>328</v>
@@ -16888,7 +17423,7 @@
         <v>776</v>
       </c>
       <c r="B162" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C162">
         <v>328</v>
@@ -16912,13 +17447,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AF3B60-0E74-734A-A08B-D35EB7E4C5C1}">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16936,16 +17471,16 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>358</v>
@@ -16956,7 +17491,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -16977,7 +17512,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>214</v>
@@ -16998,7 +17533,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>216</v>
@@ -17019,7 +17554,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>216</v>
@@ -17040,7 +17575,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>216</v>
@@ -17061,7 +17596,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>216</v>
@@ -17082,7 +17617,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>216</v>
@@ -17103,7 +17638,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>216</v>
@@ -17124,7 +17659,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>216</v>
@@ -17145,7 +17680,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>216</v>
@@ -17166,7 +17701,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>218</v>
@@ -17187,7 +17722,7 @@
         <v>774</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>218</v>
@@ -17208,7 +17743,7 @@
         <v>774</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>218</v>
@@ -17229,7 +17764,7 @@
         <v>774</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>218</v>
@@ -17250,7 +17785,7 @@
         <v>774</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>220</v>
@@ -17271,7 +17806,7 @@
         <v>774</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>220</v>
@@ -17292,7 +17827,7 @@
         <v>774</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>220</v>
@@ -17313,7 +17848,7 @@
         <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>220</v>
@@ -17334,7 +17869,7 @@
         <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>222</v>
@@ -17355,7 +17890,7 @@
         <v>774</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>222</v>
@@ -17376,7 +17911,7 @@
         <v>774</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>222</v>
@@ -17397,7 +17932,7 @@
         <v>774</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>224</v>
@@ -17418,7 +17953,7 @@
         <v>774</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>224</v>
@@ -17439,7 +17974,7 @@
         <v>774</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>226</v>
@@ -17460,7 +17995,7 @@
         <v>774</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>226</v>
@@ -17481,7 +18016,7 @@
         <v>774</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>226</v>
@@ -17502,7 +18037,7 @@
         <v>774</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>226</v>
@@ -17523,7 +18058,7 @@
         <v>774</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>226</v>
@@ -17544,7 +18079,7 @@
         <v>774</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>226</v>
@@ -17565,7 +18100,7 @@
         <v>774</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>228</v>
@@ -17586,7 +18121,7 @@
         <v>774</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>228</v>
@@ -17607,7 +18142,7 @@
         <v>774</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>228</v>
@@ -17631,7 +18166,7 @@
         <v>774</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>228</v>
@@ -17652,7 +18187,7 @@
         <v>774</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>228</v>
@@ -17673,7 +18208,7 @@
         <v>774</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>228</v>
@@ -17694,7 +18229,7 @@
         <v>774</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>228</v>
@@ -17715,7 +18250,7 @@
         <v>774</v>
       </c>
       <c r="B38" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C38">
         <v>228</v>
@@ -17736,7 +18271,7 @@
         <v>774</v>
       </c>
       <c r="B39" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C39">
         <v>230</v>
@@ -17757,7 +18292,7 @@
         <v>774</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C40">
         <v>230</v>
@@ -17778,7 +18313,7 @@
         <v>774</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C41">
         <v>230</v>
@@ -17799,7 +18334,7 @@
         <v>774</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C42">
         <v>230</v>
@@ -17820,7 +18355,7 @@
         <v>774</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C43">
         <v>230</v>
@@ -17841,7 +18376,7 @@
         <v>774</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C44">
         <v>230</v>
@@ -17862,7 +18397,7 @@
         <v>774</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C45">
         <v>232</v>
@@ -17883,7 +18418,7 @@
         <v>774</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46">
         <v>232</v>
@@ -17904,7 +18439,7 @@
         <v>774</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C47">
         <v>232</v>
@@ -17925,7 +18460,7 @@
         <v>774</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C48">
         <v>234</v>
@@ -17946,7 +18481,7 @@
         <v>774</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C49">
         <v>234</v>
@@ -17967,7 +18502,7 @@
         <v>774</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C50">
         <v>234</v>
@@ -17988,7 +18523,7 @@
         <v>774</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C51">
         <v>234</v>
@@ -18009,7 +18544,7 @@
         <v>775</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -18030,7 +18565,7 @@
         <v>775</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C53">
         <v>45</v>
@@ -18051,7 +18586,7 @@
         <v>775</v>
       </c>
       <c r="B54" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -18072,7 +18607,7 @@
         <v>775</v>
       </c>
       <c r="B55" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -18093,7 +18628,7 @@
         <v>775</v>
       </c>
       <c r="B56" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -18114,7 +18649,7 @@
         <v>775</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C57">
         <v>47</v>
@@ -18135,7 +18670,7 @@
         <v>775</v>
       </c>
       <c r="B58" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C58">
         <v>47</v>
@@ -18156,7 +18691,7 @@
         <v>775</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C59">
         <v>47</v>
@@ -18177,7 +18712,7 @@
         <v>775</v>
       </c>
       <c r="B60" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C60">
         <v>49</v>
@@ -18198,7 +18733,7 @@
         <v>775</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C61">
         <v>49</v>
@@ -18219,7 +18754,7 @@
         <v>775</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C62">
         <v>49</v>
@@ -18240,7 +18775,7 @@
         <v>775</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C63">
         <v>49</v>
@@ -18261,7 +18796,7 @@
         <v>775</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C64">
         <v>51</v>
@@ -18282,7 +18817,7 @@
         <v>775</v>
       </c>
       <c r="B65" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C65">
         <v>51</v>
@@ -18303,7 +18838,7 @@
         <v>775</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C66">
         <v>51</v>
@@ -18327,7 +18862,7 @@
         <v>775</v>
       </c>
       <c r="B67" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C67">
         <v>53</v>
@@ -18348,7 +18883,7 @@
         <v>775</v>
       </c>
       <c r="B68" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C68">
         <v>53</v>
@@ -18369,7 +18904,7 @@
         <v>775</v>
       </c>
       <c r="B69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C69">
         <v>53</v>
@@ -18390,7 +18925,7 @@
         <v>775</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C70">
         <v>53</v>
@@ -18411,7 +18946,7 @@
         <v>775</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C71">
         <v>53</v>
@@ -18432,7 +18967,7 @@
         <v>775</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72">
         <v>55</v>
@@ -18453,7 +18988,7 @@
         <v>775</v>
       </c>
       <c r="B73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C73">
         <v>55</v>
@@ -18474,7 +19009,7 @@
         <v>775</v>
       </c>
       <c r="B74" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C74">
         <v>55</v>
@@ -18495,7 +19030,7 @@
         <v>775</v>
       </c>
       <c r="B75" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C75">
         <v>55</v>
@@ -18516,7 +19051,7 @@
         <v>775</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C76">
         <v>57</v>
@@ -18537,7 +19072,7 @@
         <v>775</v>
       </c>
       <c r="B77" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C77">
         <v>57</v>
@@ -18558,7 +19093,7 @@
         <v>775</v>
       </c>
       <c r="B78" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C78">
         <v>57</v>
@@ -18579,7 +19114,7 @@
         <v>775</v>
       </c>
       <c r="B79" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C79">
         <v>57</v>
@@ -18600,7 +19135,7 @@
         <v>775</v>
       </c>
       <c r="B80" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C80">
         <v>57</v>
@@ -18621,7 +19156,7 @@
         <v>775</v>
       </c>
       <c r="B81" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C81">
         <v>57</v>
@@ -18642,7 +19177,7 @@
         <v>775</v>
       </c>
       <c r="B82" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C82">
         <v>59</v>
@@ -18663,7 +19198,7 @@
         <v>775</v>
       </c>
       <c r="B83" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C83">
         <v>59</v>
@@ -18684,7 +19219,7 @@
         <v>775</v>
       </c>
       <c r="B84" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C84">
         <v>59</v>
@@ -18705,7 +19240,7 @@
         <v>775</v>
       </c>
       <c r="B85" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C85">
         <v>59</v>
@@ -18726,7 +19261,7 @@
         <v>775</v>
       </c>
       <c r="B86" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C86">
         <v>61</v>
@@ -18747,7 +19282,7 @@
         <v>775</v>
       </c>
       <c r="B87" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C87">
         <v>61</v>
@@ -18768,7 +19303,7 @@
         <v>775</v>
       </c>
       <c r="B88" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C88">
         <v>61</v>
@@ -18789,7 +19324,7 @@
         <v>775</v>
       </c>
       <c r="B89" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C89">
         <v>61</v>
@@ -18810,7 +19345,7 @@
         <v>775</v>
       </c>
       <c r="B90" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C90">
         <v>63</v>
@@ -18831,7 +19366,7 @@
         <v>775</v>
       </c>
       <c r="B91" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C91">
         <v>63</v>
@@ -18852,7 +19387,7 @@
         <v>775</v>
       </c>
       <c r="B92" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C92">
         <v>63</v>
@@ -18873,7 +19408,7 @@
         <v>775</v>
       </c>
       <c r="B93" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C93">
         <v>63</v>
@@ -18894,7 +19429,7 @@
         <v>775</v>
       </c>
       <c r="B94" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C94">
         <v>63</v>
@@ -18915,7 +19450,7 @@
         <v>775</v>
       </c>
       <c r="B95" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C95">
         <v>63</v>
@@ -18936,7 +19471,7 @@
         <v>775</v>
       </c>
       <c r="B96" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C96">
         <v>65</v>
@@ -18957,7 +19492,7 @@
         <v>775</v>
       </c>
       <c r="B97" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C97">
         <v>65</v>
@@ -18978,7 +19513,7 @@
         <v>775</v>
       </c>
       <c r="B98" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C98">
         <v>65</v>
@@ -18999,7 +19534,7 @@
         <v>775</v>
       </c>
       <c r="B99" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C99">
         <v>65</v>
@@ -19020,7 +19555,7 @@
         <v>775</v>
       </c>
       <c r="B100" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C100">
         <v>65</v>
@@ -19041,7 +19576,7 @@
         <v>775</v>
       </c>
       <c r="B101" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C101">
         <v>67</v>
@@ -19062,7 +19597,7 @@
         <v>775</v>
       </c>
       <c r="B102" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C102">
         <v>67</v>
@@ -19083,7 +19618,7 @@
         <v>775</v>
       </c>
       <c r="B103" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C103">
         <v>67</v>
@@ -19104,7 +19639,7 @@
         <v>775</v>
       </c>
       <c r="B104" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C104">
         <v>67</v>
@@ -19125,7 +19660,7 @@
         <v>775</v>
       </c>
       <c r="B105" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C105">
         <v>69</v>
@@ -19146,7 +19681,7 @@
         <v>775</v>
       </c>
       <c r="B106" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C106">
         <v>69</v>
@@ -19167,7 +19702,7 @@
         <v>776</v>
       </c>
       <c r="B107" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C107">
         <v>305</v>
@@ -19188,7 +19723,7 @@
         <v>776</v>
       </c>
       <c r="B108" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C108">
         <v>307</v>
@@ -19209,7 +19744,7 @@
         <v>776</v>
       </c>
       <c r="B109" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C109">
         <v>307</v>
@@ -19230,7 +19765,7 @@
         <v>776</v>
       </c>
       <c r="B110" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C110">
         <v>309</v>
@@ -19251,7 +19786,7 @@
         <v>776</v>
       </c>
       <c r="B111" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C111">
         <v>309</v>
@@ -19272,7 +19807,7 @@
         <v>776</v>
       </c>
       <c r="B112" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C112">
         <v>311</v>
@@ -19293,7 +19828,7 @@
         <v>776</v>
       </c>
       <c r="B113" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C113">
         <v>311</v>
@@ -19314,7 +19849,7 @@
         <v>776</v>
       </c>
       <c r="B114" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C114">
         <v>313</v>
@@ -19335,7 +19870,7 @@
         <v>776</v>
       </c>
       <c r="B115" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C115">
         <v>313</v>
@@ -19356,7 +19891,7 @@
         <v>776</v>
       </c>
       <c r="B116" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C116">
         <v>313</v>
@@ -19377,7 +19912,7 @@
         <v>776</v>
       </c>
       <c r="B117" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C117">
         <v>315</v>
@@ -19398,7 +19933,7 @@
         <v>776</v>
       </c>
       <c r="B118" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C118">
         <v>315</v>
@@ -19419,7 +19954,7 @@
         <v>776</v>
       </c>
       <c r="B119" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C119">
         <v>317</v>
@@ -19440,7 +19975,7 @@
         <v>776</v>
       </c>
       <c r="B120" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C120">
         <v>317</v>
@@ -19461,7 +19996,7 @@
         <v>776</v>
       </c>
       <c r="B121" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C121">
         <v>319</v>
@@ -19482,7 +20017,7 @@
         <v>776</v>
       </c>
       <c r="B122" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C122">
         <v>319</v>
@@ -19503,7 +20038,7 @@
         <v>776</v>
       </c>
       <c r="B123" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C123">
         <v>319</v>
@@ -19524,7 +20059,7 @@
         <v>776</v>
       </c>
       <c r="B124" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C124">
         <v>321</v>
@@ -19545,7 +20080,7 @@
         <v>776</v>
       </c>
       <c r="B125" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C125">
         <v>323</v>
@@ -19566,7 +20101,7 @@
         <v>776</v>
       </c>
       <c r="B126" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C126">
         <v>323</v>
@@ -19587,7 +20122,7 @@
         <v>776</v>
       </c>
       <c r="B127" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C127">
         <v>323</v>
@@ -19608,7 +20143,7 @@
         <v>776</v>
       </c>
       <c r="B128" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C128">
         <v>325</v>
@@ -19629,7 +20164,7 @@
         <v>776</v>
       </c>
       <c r="B129" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C129">
         <v>325</v>
@@ -19650,7 +20185,7 @@
         <v>776</v>
       </c>
       <c r="B130" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C130">
         <v>327</v>
@@ -19671,7 +20206,7 @@
         <v>776</v>
       </c>
       <c r="B131" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C131">
         <v>327</v>
@@ -19692,13 +20227,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81122215-19AD-6544-853F-6F9496FAC7F0}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B37"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19716,7 +20251,7 @@
         <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>778</v>
+        <v>846</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>360</v>
@@ -19737,7 +20272,7 @@
         <v>365</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>366</v>
@@ -19746,10 +20281,10 @@
         <v>367</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>358</v>
@@ -19760,7 +20295,7 @@
         <v>774</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>214</v>
@@ -19804,7 +20339,7 @@
         <v>774</v>
       </c>
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>216</v>
@@ -19848,7 +20383,7 @@
         <v>774</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>218</v>
@@ -19892,7 +20427,7 @@
         <v>774</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>220</v>
@@ -19936,7 +20471,7 @@
         <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>222</v>
@@ -19980,7 +20515,7 @@
         <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>224</v>
@@ -20024,7 +20559,7 @@
         <v>774</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>226</v>
@@ -20068,7 +20603,7 @@
         <v>774</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C9">
         <v>228</v>
@@ -20112,7 +20647,7 @@
         <v>774</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C10">
         <v>230</v>
@@ -20156,7 +20691,7 @@
         <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C11">
         <v>232</v>
@@ -20200,7 +20735,7 @@
         <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C12">
         <v>234</v>
@@ -20244,7 +20779,7 @@
         <v>775</v>
       </c>
       <c r="B13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C13">
         <v>45</v>
@@ -20288,7 +20823,7 @@
         <v>775</v>
       </c>
       <c r="B14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C14">
         <v>47</v>
@@ -20332,7 +20867,7 @@
         <v>775</v>
       </c>
       <c r="B15" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C15">
         <v>49</v>
@@ -20376,7 +20911,7 @@
         <v>775</v>
       </c>
       <c r="B16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C16">
         <v>51</v>
@@ -20420,7 +20955,7 @@
         <v>775</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C17">
         <v>53</v>
@@ -20464,7 +20999,7 @@
         <v>775</v>
       </c>
       <c r="B18" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C18">
         <v>55</v>
@@ -20508,7 +21043,7 @@
         <v>775</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -20552,7 +21087,7 @@
         <v>775</v>
       </c>
       <c r="B20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20">
         <v>59</v>
@@ -20596,7 +21131,7 @@
         <v>775</v>
       </c>
       <c r="B21" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C21">
         <v>61</v>
@@ -20640,7 +21175,7 @@
         <v>775</v>
       </c>
       <c r="B22" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C22">
         <v>63</v>
@@ -20684,7 +21219,7 @@
         <v>775</v>
       </c>
       <c r="B23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C23">
         <v>65</v>
@@ -20728,7 +21263,7 @@
         <v>775</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C24">
         <v>67</v>
@@ -20772,7 +21307,7 @@
         <v>775</v>
       </c>
       <c r="B25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C25">
         <v>69</v>
@@ -20816,7 +21351,7 @@
         <v>776</v>
       </c>
       <c r="B26" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C26">
         <v>305</v>
@@ -20860,7 +21395,7 @@
         <v>776</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C27">
         <v>307</v>
@@ -20904,7 +21439,7 @@
         <v>776</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C28">
         <v>309</v>
@@ -20948,7 +21483,7 @@
         <v>776</v>
       </c>
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29">
         <v>311</v>
@@ -20992,7 +21527,7 @@
         <v>776</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30">
         <v>313</v>
@@ -21036,7 +21571,7 @@
         <v>776</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C31">
         <v>315</v>
@@ -21080,7 +21615,7 @@
         <v>776</v>
       </c>
       <c r="B32" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C32">
         <v>317</v>
@@ -21124,7 +21659,7 @@
         <v>776</v>
       </c>
       <c r="B33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C33">
         <v>319</v>
@@ -21168,7 +21703,7 @@
         <v>776</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C34">
         <v>321</v>
@@ -21212,7 +21747,7 @@
         <v>776</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C35">
         <v>323</v>
@@ -21256,7 +21791,7 @@
         <v>776</v>
       </c>
       <c r="B36" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C36">
         <v>325</v>
@@ -21300,7 +21835,7 @@
         <v>776</v>
       </c>
       <c r="B37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C37">
         <v>327</v>
